--- a/exports/output/theft_numbers.xlsx
+++ b/exports/output/theft_numbers.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Documents/history/exports/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="theft_general" sheetId="1" r:id="rId1"/>
     <sheet name="theft_age" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -211,12 +224,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -246,12 +259,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -461,9 +474,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +490,7 @@
         <v>13464</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +504,7 @@
         <v>6427</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -505,7 +518,7 @@
         <v>4993</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -519,7 +532,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -533,7 +546,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -547,7 +560,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -561,7 +574,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -575,7 +588,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -589,7 +602,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -603,7 +616,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -617,7 +630,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -631,7 +644,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -645,7 +658,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -659,7 +672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -673,7 +686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -687,7 +700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -701,7 +714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -715,11 +728,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <f>SUM(B1:B18)</f>
         <v>37684</v>
@@ -733,7 +746,7 @@
         <v>0.35728691221738668</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="D21" s="2">
         <f>D20/B20</f>
@@ -749,17 +762,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +794,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +816,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -825,7 +838,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -847,7 +860,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -869,7 +882,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -891,7 +904,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -913,7 +926,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -935,7 +948,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -956,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -970,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -984,7 +997,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1011,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1039,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1109,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1151,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1333,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1347,7 @@
         <v>4855</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1361,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1375,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1781,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1795,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -1796,7 +1809,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1823,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1866,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1921,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1935,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2048,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2117,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2118,7 +2131,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -2146,7 +2159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +2243,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2271,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2285,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +2299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -2300,7 +2313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -2412,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2467,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -2524,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -2538,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2576,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
